--- a/业户信息.xlsx
+++ b/业户信息.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,4049 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>车牌</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>业户名称</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>是否处罚</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>处理情况</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>桩号</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>轴数</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>吨位</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>地址</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>负责人</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>负责人手机号</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>联系电话</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-10-15 03:50:41.129</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鲁Q738GA</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>临沂大成运输有限公司</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>228下行</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>山东省临沂市兰山区北外环与西外环交汇往西50米恒友物流</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>沙莉</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>13053929236</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-10-14 16:09:23.626</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鲁MAD162</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>山东惠民凯特运输有限公司</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>228下行</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+      <c r="I3" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>山东省滨州市惠民县麻店镇王家店子村</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>韩书慧</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>18354311852</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-10-14 14:47:39.605</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>苏GE6007</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>连云港和程物流有限公司</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>228下行</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>71.65000000000001</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>江苏省连云港市连云区上合组织（连云港）国际物流园海丰路5号1225-10室</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>岳通</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>15631931697</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-10-14 14:11:49.778</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>苏GS5905</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>唐宝</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>228下行</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I5" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>江苏省连云港市海州区板浦镇东北村孙庄44号</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>唐宝</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>17312338998</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>18352815797</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-10-14 13:31:49.761</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>苏GN5205</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>连云港和程物流有限公司</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>228下行</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>江苏省连云港市连云区上合组织（连云港）国际物流园海丰路5号1225-10室</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>岳通</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>15631931697</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-10-14 13:04:43.745</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>苏GY7055</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>连云港和程物流有限公司</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>228下行</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+      <c r="I7" t="n">
+        <v>78.95</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>江苏省连云港市连云区上合组织（连云港）国际物流园海丰路5号1225-10室</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>岳通</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>15631931697</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-10-14 13:04:14.683</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>苏JV5529</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>盐城和程物流有限公司</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>228下行</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>73.7</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>江苏省盐城市射阳县特庸镇汤始建华建材(盐城)有限公司院内</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>岳通</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>15631931697</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>1563193197</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-10-14 12:40:54.214</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>苏GH8733</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>连云港和程物流有限公司</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>228下行</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>76.15000000000001</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>江苏省连云港市连云区上合组织（连云港）国际物流园海丰路5号1225-10室</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>岳通</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>15631931697</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-10-14 12:31:53.582</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>苏GU9131</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>连云港和程物流有限公司</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>228下行</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>江苏省连云港市连云区上合组织（连云港）国际物流园海丰路5号1225-10室</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>岳通</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>15631931697</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-10-14 11:33:12.338</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>苏GS5905</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>唐宝</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>228下行</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>江苏省连云港市海州区板浦镇东北村孙庄44号</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>唐宝</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>17312338998</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>18352815797</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-10-14 08:41:24.087</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>苏GB2802</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>连云港瑞速物流有限公司</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>228下行</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>90.95</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>连云港市海州区解放东路328号浦东物流中心配载二号楼218室</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>王安</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>15862908898</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>15305134588</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-10-14 08:30:02.884</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>苏GS5905</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>唐宝</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>228下行</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+      <c r="I13" t="n">
+        <v>70.90000000000001</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>江苏省连云港市海州区板浦镇东北村孙庄44号</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>唐宝</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>17312338998</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>18352815797</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-10-14 06:18:45.326</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>苏JS2769</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>盐城和程物流有限公司</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>228下行</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+      <c r="I14" t="n">
+        <v>70.65000000000001</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>江苏省盐城市射阳县特庸镇汤始建华建材(盐城)有限公司院内</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>岳通</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>15631931697</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>1563193197</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-10-14 05:54:07.122</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>苏GG8388</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>连云港和程物流有限公司</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>228下行</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+      <c r="I15" t="n">
+        <v>71.25</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>江苏省连云港市连云区上合组织（连云港）国际物流园海丰路5号1225-10室</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>岳通</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>15631931697</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-10-14 05:37:29.795</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>苏GN9570</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>连云港和程物流有限公司</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>228下行</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+      <c r="I16" t="n">
+        <v>76.15000000000001</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>江苏省连云港市连云区上合组织（连云港）国际物流园海丰路5号1225-10室</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>岳通</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>15631931697</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-10-14 05:04:48.184</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>苏GH6111</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>连云港和程物流有限公司</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>228下行</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+      <c r="I17" t="n">
+        <v>75.15000000000001</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>江苏省连云港市连云区上合组织（连云港）国际物流园海丰路5号1225-10室</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>岳通</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>15631931697</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-10-14 04:42:49.439</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>苏GV6255</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>连云港和程物流有限公司</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>228下行</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+      <c r="I18" t="n">
+        <v>74.55</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>江苏省连云港市连云区上合组织（连云港）国际物流园海丰路5号1225-10室</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>岳通</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>15631931697</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-10-14 04:28:12.342</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>苏JD6362</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>盐城和程物流有限公司</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>228下行</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I19" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>江苏省盐城市射阳县特庸镇汤始建华建材(盐城)有限公司院内</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>岳通</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>15631931697</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>1563193197</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-10-14 04:21:31.402</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>苏JQ9365</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>盐城和程物流有限公司</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>228下行</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+      <c r="I20" t="n">
+        <v>70.34999999999999</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>江苏省盐城市射阳县特庸镇汤始建华建材(盐城)有限公司院内</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>岳通</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>15631931697</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>1563193197</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-10-14 04:21:22.700</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>苏JS0592</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>盐城和程物流有限公司</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>228下行</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I21" t="n">
+        <v>74.95</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>江苏省盐城市射阳县特庸镇汤始建华建材(盐城)有限公司院内</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>岳通</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>15631931697</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>1563193197</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-10-14 04:21:08.099</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>苏GY7055</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>连云港和程物流有限公司</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>228下行</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+      <c r="I22" t="n">
+        <v>82.55</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>江苏省连云港市连云区上合组织（连云港）国际物流园海丰路5号1225-10室</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>岳通</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>15631931697</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-10-14 04:18:57.109</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>苏GN9375</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>连云港和程物流有限公司</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>228下行</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+      <c r="I23" t="n">
+        <v>69.55</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>江苏省连云港市连云区上合组织（连云港）国际物流园海丰路5号1225-10室</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>岳通</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>15631931697</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-10-14 03:41:35.377</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>苏GN8068</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>陈明康</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>228下行</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+      <c r="I24" t="n">
+        <v>100.15</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>江苏省连云港市赣榆县沙河镇新兴村阎庄二队192号</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>陈明康</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>13225186728</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>13225186728</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-10-14 03:40:03.479</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>苏GT8399</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>刘斌</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>228下行</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+      <c r="I25" t="n">
+        <v>70.55</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>江苏省连云港市江苏省连云港市赣榆县沙河镇何园村二队361号</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>刘斌</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>13705126650</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-10-14 03:39:02.994</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>苏GJ1811</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>连云港和程物流有限公司</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>228下行</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+      <c r="I26" t="n">
+        <v>77.75</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>江苏省连云港市连云区上合组织（连云港）国际物流园海丰路5号1225-10室</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>岳通</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>15631931697</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-10-14 02:45:06.895</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>苏GQ0080</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>连云港和程物流有限公司</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>228下行</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+      <c r="I27" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>江苏省连云港市连云区上合组织（连云港）国际物流园海丰路5号1225-10室</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>岳通</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>15631931697</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-10-14 01:51:54.159</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>苏GB0566</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>连云港和程物流有限公司</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>228下行</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+      <c r="I28" t="n">
+        <v>71.15000000000001</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>江苏省连云港市连云区上合组织（连云港）国际物流园海丰路5号1225-10室</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>岳通</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>15631931697</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-10-14 00:06:34.771</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>苏GW6968</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>连云港和程物流有限公司</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>228下行</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+      <c r="I29" t="n">
+        <v>73.25</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>江苏省连云港市连云区上合组织（连云港）国际物流园海丰路5号1225-10室</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>岳通</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>15631931697</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-10-13 23:45:22.193</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>苏GM7518</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>连云港和程物流有限公司</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>228下行</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+      <c r="I30" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>江苏省连云港市连云区上合组织（连云港）国际物流园海丰路5号1225-10室</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>岳通</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>15631931697</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-10-13 23:42:53.641</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>苏JV5529</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>盐城和程物流有限公司</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>228下行</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+      <c r="I31" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>江苏省盐城市射阳县特庸镇汤始建华建材(盐城)有限公司院内</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>岳通</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>15631931697</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>1563193197</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-10-13 23:30:19.422</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>苏GU9131</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>连云港和程物流有限公司</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>228下行</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+      <c r="I32" t="n">
+        <v>73.95</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>江苏省连云港市连云区上合组织（连云港）国际物流园海丰路5号1225-10室</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>岳通</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>15631931697</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-10-13 22:35:50.859</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>苏GH8733</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>连云港和程物流有限公司</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>228下行</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+      <c r="I33" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>江苏省连云港市连云区上合组织（连云港）国际物流园海丰路5号1225-10室</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>岳通</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>15631931697</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-10-13 19:43:17.628</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鲁Q300DB</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>山东明哲物流有限公司</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>228下行</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+      <c r="I34" t="n">
+        <v>65.45</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>临沂市兰山区义堂镇化沂庄社区0003号1号楼101（荣庆物流D201、2013号）</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>高云</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>15953967988</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-10-13 15:27:16.672</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>苏GD3282</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>李猛</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>228下行</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+      <c r="I35" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>江苏省连云港市灌云县江苏省连云港市灌云县伊山镇侍岭庄29号</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>李猛</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>15050916090</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-10-13 14:07:05.742</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>苏GU8786</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>刘强宝</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>228下行</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+      <c r="I36" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>江苏省连云港市赣榆县沙河镇双堆村后堆六队68号</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>刘强宝</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>13905126469</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>13905126469</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-10-13 13:07:34.927</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>苏GF5566</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>连云港和程物流有限公司</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>228下行</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+      <c r="I37" t="n">
+        <v>95.2</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>江苏省连云港市连云区上合组织（连云港）国际物流园海丰路5号1225-10室</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>岳通</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>15631931697</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025-10-15 06:47:07.035</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鲁Q580KS</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>山东泓安运输有限公司</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>402</v>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+      <c r="I38" t="n">
+        <v>66.55</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>山东省临沂市兰山区双岭路与临西十三路交汇处向北300米路东</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>宋庆铖</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>18669923697</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-10-15 06:40:38.316</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>苏GY6820</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>连云港和程物流有限公司</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>402</v>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+      <c r="I39" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>江苏省连云港市连云区上合组织（连云港）国际物流园海丰路5号1225-10室</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>岳通</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>15631931697</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-10-15 06:27:51.948</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>苏JV9023</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>盐城和程物流有限公司</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>402</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+      <c r="I40" t="n">
+        <v>45.85</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>江苏省盐城市射阳县特庸镇汤始建华建材(盐城)有限公司院内</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>岳通</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>15631931697</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>1563193197</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-10-15 06:27:37.778</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>苏GT7979</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>连云港和程物流有限公司</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>402</v>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+      <c r="I41" t="n">
+        <v>82.65000000000001</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>江苏省连云港市连云区上合组织（连云港）国际物流园海丰路5号1225-10室</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>岳通</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>15631931697</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-10-15 06:26:21.365</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>苏GN9570</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>连云港和程物流有限公司</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>402</v>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+      <c r="I42" t="n">
+        <v>88.34999999999999</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>江苏省连云港市连云区上合组织（连云港）国际物流园海丰路5号1225-10室</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>岳通</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>15631931697</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-10-15 06:25:41.965</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>苏GV6255</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>连云港和程物流有限公司</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>402</v>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+      <c r="I43" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>江苏省连云港市连云区上合组织（连云港）国际物流园海丰路5号1225-10室</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>岳通</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>15631931697</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-10-15 06:24:54.617</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>苏GH6111</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>连云港和程物流有限公司</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>402</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+      <c r="I44" t="n">
+        <v>44.75</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>江苏省连云港市连云区上合组织（连云港）国际物流园海丰路5号1225-10室</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>岳通</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>15631931697</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-10-15 05:32:06.066</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>苏GU7635</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>高希信</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="n">
+        <v>402</v>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+      <c r="I45" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>江苏省连云港市赣榆区黑林镇黑林村三村二队</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>高希信</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>15861288804</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025-10-15 04:35:57.946</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鲁Q823BQ</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>山东泓安运输有限公司</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>402</v>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+      <c r="I46" t="n">
+        <v>64.15000000000001</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>山东省临沂市兰山区双岭路与临西十三路交汇处向北300米路东</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>宋庆铖</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>18669923697</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025-10-15 04:31:26.658</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>苏GG3899</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>李金豹</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>402</v>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+      <c r="I47" t="n">
+        <v>82.84999999999999</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>江苏省连云港市赣榆区班庄镇演马厂村一队137号</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>李金豹</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>17327186888</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025-10-15 03:54:03.231</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鲁Q312RQ</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>临沭县陆骏运输有限公司</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>402</v>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+      <c r="I48" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>山东省临沂市临沭县临沭街道史丹利路与玉山路交汇处北190号</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>傅叶</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>18669933813</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025-10-15 03:15:20.244</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>苏GG8613</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>刘小庭</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>402</v>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+      <c r="I49" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>江苏省连云港市赣榆区班庄镇三清阁村一队19号</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>刘小庭</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>13585297336</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025-10-15 03:13:29.304</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鲁Q389DE</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>临沭县兴华物流有限公司</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>402</v>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+      <c r="I50" t="n">
+        <v>77.95</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>临沭县店头镇路岭村（店头工业园）</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>高希波</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>13705394963</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2025-10-15 02:40:16.794</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鲁Q755DC</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>临沭县陆骏运输有限公司</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>402</v>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+      <c r="I51" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>山东省临沂市临沭县临沭街道史丹利路与玉山路交汇处北190号</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>傅叶</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>18669933813</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025-10-15 01:48:05.749</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>苏GB9967</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>赵安超</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>402</v>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+      <c r="I52" t="n">
+        <v>87.45</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>江苏省连云港市赣榆县沙河镇朱屯村三队216号</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>赵安超</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>18362855787</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>18362855787</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2025-10-15 01:47:12.489</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>苏GN6877</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>朱飞</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="n">
+        <v>402</v>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+      <c r="I53" t="n">
+        <v>87.65000000000001</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>江苏省连云港市赣榆县沙河镇朱屯村二队</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>朱飞</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>13851243006</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>13851243006</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2025-10-15 01:19:29.693</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鲁UV1963</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>青岛垚鑫物流有限公司</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="n">
+        <v>402</v>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+      <c r="I54" t="n">
+        <v>66.95</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>山东省青岛市胶州市经济技术开发区滦河路1号青岛传化公路港内</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>姜林林</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>13335073901</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2025-10-14 23:15:21.138</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鲁Q373DX</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>高希才</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="n">
+        <v>402</v>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+      <c r="I55" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>山东省临沂市临沭县临沭镇前于店村598号</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>高希才</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>15854975999</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2025-10-14 19:27:18.557</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>苏NFK315</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>沭阳县明腾运输有限公司</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="n">
+        <v>402</v>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+      <c r="I56" t="n">
+        <v>66.05</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>江苏省宿迁市沭阳县胡集镇工业园区（205国道）东侧苏林木业办公楼101室</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>李晓剑</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>15005120003</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2025-10-14 19:24:25.946</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>苏NEF295</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>沭阳县明腾运输有限公司</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>402</v>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+      <c r="I57" t="n">
+        <v>63.95</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>江苏省宿迁市沭阳县胡集镇工业园区（205国道）东侧苏林木业办公楼101室</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>李晓剑</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>15005120003</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2025-10-14 19:20:13.974</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鲁Q230NV</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>山东辉达国际物流有限公司</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="n">
+        <v>402</v>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+      <c r="I58" t="n">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>山东省临沂市兰山区汪沟镇长夫村</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>杜庆民</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>13295397560</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2025-10-14 18:43:58.090</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鲁Q637QY</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>高希平</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="n">
+        <v>402</v>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+      <c r="I59" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>山东省临沂市临沭县临沭镇前于店村578-4号</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>高希平</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>13969907352</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2025-10-14 18:42:27.943</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鲁Q580KB</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>临沭县庞大货物运输有限公司</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="n">
+        <v>402</v>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+      <c r="I60" t="n">
+        <v>72.45</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>临沭县沭河东街</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>胡亚峰</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>18006490999</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2025-10-14 18:41:08.270</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>苏GR8115</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>陶士华</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="n">
+        <v>402</v>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+      <c r="I61" t="n">
+        <v>80.84999999999999</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>江苏省连云港市东海县黄川镇桃李村15-43号</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>陶士华</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>18352119238</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>18352119238</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2025-10-14 14:06:44.860</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鲁H06Y98</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>嘉祥途顺运输有限公司</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="n">
+        <v>402</v>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+      <c r="I62" t="n">
+        <v>78.45</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>山东省嘉祥县曾子大道南祥炬嘉园门市房11-1-101室</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>仇伟方</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>18863748888</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2025-10-14 14:04:12.898</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>苏NFM797</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>沭阳县明腾运输有限公司</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="n">
+        <v>402</v>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+      <c r="I63" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>江苏省宿迁市沭阳县胡集镇工业园区（205国道）东侧苏林木业办公楼101室</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>李晓剑</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>15005120003</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2025-10-14 14:03:23.468</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>苏F3323S</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>通州区金沙鹏博道路运输服务部（个体工商户）</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="n">
+        <v>402</v>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+      <c r="I64" t="n">
+        <v>52.55</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">江苏省南通市通州区金沙街道金余村43组 </t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>徐鹏</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>13585299798</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2025-10-14 14:02:14.729</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>苏NFJ589</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>沭阳县明腾运输有限公司</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="n">
+        <v>402</v>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+      <c r="I65" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>江苏省宿迁市沭阳县胡集镇工业园区（205国道）东侧苏林木业办公楼101室</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>李晓剑</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>15005120003</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2025-10-14 12:29:16.891</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>苏GR8115</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>陶士华</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="n">
+        <v>402</v>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+      <c r="I66" t="n">
+        <v>95.45</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>江苏省连云港市东海县黄川镇桃李村15-43号</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>陶士华</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>18352119238</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>18352119238</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2025-10-14 07:27:24.003</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>苏GT1996</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>何宜波</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="n">
+        <v>402</v>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+      <c r="I67" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>江苏省连云港市赣榆区江苏省连云港市赣榆县城西镇朱岔汪村二队76号</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>何宜波</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>13961346872</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2025-10-14 03:54:15.069</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>苏GH3227</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>陆晋</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="n">
+        <v>402</v>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+      <c r="I68" t="n">
+        <v>65.75</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>江苏省连云港市新浦区健康北路6号四单元203室</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>陆晋</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>13961345432</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>13812330069</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2025-10-14 03:49:24.608</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>苏GG3899</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>李金豹</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="n">
+        <v>402</v>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+      <c r="I69" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>江苏省连云港市赣榆区班庄镇演马厂村一队137号</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>李金豹</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>17327186888</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2025-10-14 02:11:56.932</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>鲁Q503RE</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>临沭县瑞源物流有限公司</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="n">
+        <v>402</v>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+      <c r="I70" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>山东省临沂市临沭县常林大街前于店村798号</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>傅廷粉</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>13953909606</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2025-10-14 01:36:56.633</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>苏GB9967</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>赵安超</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="n">
+        <v>402</v>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+      <c r="I71" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>江苏省连云港市赣榆县沙河镇朱屯村三队216号</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>赵安超</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>18362855787</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>18362855787</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2025-10-14 01:28:22.207</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>苏GN6877</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>朱飞</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="n">
+        <v>402</v>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+      <c r="I72" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>江苏省连云港市赣榆县沙河镇朱屯村二队</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>朱飞</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>13851243006</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>13851243006</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2025-10-13 18:48:53.006</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>鲁Q580KS</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>山东泓安运输有限公司</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="n">
+        <v>402</v>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+      <c r="I73" t="n">
+        <v>65</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>山东省临沂市兰山区双岭路与临西十三路交汇处向北300米路东</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>宋庆铖</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>18669923697</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2025-10-13 18:35:51.258</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>苏NFM665</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>沭阳县明腾运输有限公司</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="n">
+        <v>402</v>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+      <c r="I74" t="n">
+        <v>63.9</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>江苏省宿迁市沭阳县胡集镇工业园区（205国道）东侧苏林木业办公楼101室</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>李晓剑</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>15005120003</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2025-10-13 18:29:22.056</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>苏NFK315</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>沭阳县明腾运输有限公司</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="n">
+        <v>402</v>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+      <c r="I75" t="n">
+        <v>78.15000000000001</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>江苏省宿迁市沭阳县胡集镇工业园区（205国道）东侧苏林木业办公楼101室</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>李晓剑</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>15005120003</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2025-10-13 18:16:07.148</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>苏GP2680</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>李波</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="n">
+        <v>402</v>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+      <c r="I76" t="n">
+        <v>75.55</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>江苏省连云港市赣榆县黑林镇黑林村一村四队79号</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>李波</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>13775426791</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>13775426791</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2025-10-13 16:52:05.704</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>苏NEF297</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>沭阳县明腾运输有限公司</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="n">
+        <v>402</v>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+      <c r="I77" t="n">
+        <v>63.9</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>江苏省宿迁市沭阳县胡集镇工业园区（205国道）东侧苏林木业办公楼101室</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>李晓剑</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>15005120003</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2025-10-13 15:00:36.657</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>鲁UV1963</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>青岛垚鑫物流有限公司</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="n">
+        <v>402</v>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+      <c r="I78" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>山东省青岛市胶州市经济技术开发区滦河路1号青岛传化公路港内</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>姜林林</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>13335073901</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2025-10-13 14:54:25.614</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>苏G7936E</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>连云港健康粮油有限公司</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="n">
+        <v>402</v>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+      <c r="I79" t="n">
+        <v>82.25</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>江苏省连云港市赣榆县金山镇工业园</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>李继彬</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>13905126773</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2025-10-13 14:48:04.867</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>鲁Q823BQ</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>山东泓安运输有限公司</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="n">
+        <v>402</v>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+      <c r="I80" t="n">
+        <v>64.34999999999999</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>山东省临沂市兰山区双岭路与临西十三路交汇处向北300米路东</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>宋庆铖</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>18669923697</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2025-10-13 13:12:30.564</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>苏GQ5360</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>张胜利</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>402</v>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+      <c r="I81" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>江苏省连云港市赣榆县沙河镇东单村四队215号</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>张胜利</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>13775432615</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>13775432615</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2025-10-13 11:00:24.987</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>鲁BD1190</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>青岛云集兴通国际物流有限公司</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>402</v>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+      <c r="I82" t="n">
+        <v>63.75</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>山东省青岛市黄岛区（原开发区淮河西路568号办公1310）</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>常桂为</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>15666975605</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>